--- a/medicine/Sexualité et sexologie/Casa_di_piacere/Casa_di_piacere.xlsx
+++ b/medicine/Sexualité et sexologie/Casa_di_piacere/Casa_di_piacere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Casa di piacere (littéralement, La Maison du Plaisir) est un film italien réalisé par Bruno Gaburro, sorti en 1989.
 C'est une libre adaptation du roman Le Sopha (1742) de Claude-Prosper Jolyot de Crébillon. Le titre international du film est Dirty Love 2: The Love Games, et est la suite d’Amore sporco (Dirty Love) réalisé par Joe D'Amato en 1988.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ancienne prostituée décide de changer de vie. Mais dans sa nouvelle maison, il semble y avoir un canapé rouge, semblable à celui qui se trouvait dans la maison close où elle a travaillé pendant des années. C'est l'occasion de fantasmer sur ses expériences passées.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Félicitie ou le canapé rouge (télévision) ou Maison du plaisir (télévision par câble)
 Titre italien : Casa di piacere
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Valentine Demy : Eva
 Alessandro Freyberger : Camillo
